--- a/bases/tabla4.xlsx
+++ b/bases/tabla4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\Proyectos_de_R\Libro R\bases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\GitHub\intro_r_ciencias\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA97402-FDEA-48C8-91BA-CEDDEDCC94AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8766806-31B9-4AF8-90D2-35590FF595BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -822,18 +822,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FD411-BDF2-40FD-A78A-9EFC2CE3AA28}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.76953125" customWidth="1"/>
+    <col min="2" max="2" width="56.76953125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -866,7 +866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -899,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -910,7 +910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -921,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -943,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -954,7 +954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -965,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -976,7 +976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -987,7 +987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -998,7 +998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>122</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>85</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>143</v>
       </c>

--- a/bases/tabla4.xlsx
+++ b/bases/tabla4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\GitHub\intro_r_ciencias\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8766806-31B9-4AF8-90D2-35590FF595BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C400F-2B9C-452F-9409-A4D6C4F61ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="184">
   <si>
     <t>Función</t>
   </si>
@@ -469,6 +469,114 @@
   </si>
   <si>
     <t>`unique(letras)`</t>
+  </si>
+  <si>
+    <t>`round()`</t>
+  </si>
+  <si>
+    <t>`round(0.00887, 2)`</t>
+  </si>
+  <si>
+    <t>Redondea un número a la cantidad de decimales establecida.</t>
+  </si>
+  <si>
+    <t>`signif()`</t>
+  </si>
+  <si>
+    <t>`signif(0.00887, 2)`</t>
+  </si>
+  <si>
+    <t>Redondea un número a la cantidad de números significativos establecida.</t>
+  </si>
+  <si>
+    <t>`seq_along()`</t>
+  </si>
+  <si>
+    <t>Crea una secuencia de números enteros desde 1 hasta el valor de la longitud de elementos del vector.</t>
+  </si>
+  <si>
+    <t>`seq_along(x)`</t>
+  </si>
+  <si>
+    <t>`print()`</t>
+  </si>
+  <si>
+    <t>Imprime un objeto en la consola. Retorna el valor original..</t>
+  </si>
+  <si>
+    <t>`print(x)`</t>
+  </si>
+  <si>
+    <t>`return()`</t>
+  </si>
+  <si>
+    <t>`return(x)`</t>
+  </si>
+  <si>
+    <t>`head()`</t>
+  </si>
+  <si>
+    <t>Muestra las primeras 6 filas de una data frame (DF) o tibble.</t>
+  </si>
+  <si>
+    <t>`head(DF)`</t>
+  </si>
+  <si>
+    <t>Muestra las últimas 6 filas de una data frame (DF) o tibble.</t>
+  </si>
+  <si>
+    <t>`tail(DF)`</t>
+  </si>
+  <si>
+    <t>`tail()`</t>
+  </si>
+  <si>
+    <t>`ls()`</t>
+  </si>
+  <si>
+    <t>Lista el nombre de todos los objetos en el ambiente.</t>
+  </si>
+  <si>
+    <t>`cut()`</t>
+  </si>
+  <si>
+    <t>Convierte a factor un vector, dividiéndolo (cortándolo) en la cantidad de grupos definidos. Clásica función para convertir un vector numérico de edades en rangos etarios.</t>
+  </si>
+  <si>
+    <t>`cut(1:20, breaks = 3)`</t>
+  </si>
+  <si>
+    <t>Los mismo que cut() pero dándole un nombre nuevo a cada nivel del factor.</t>
+  </si>
+  <si>
+    <t>`cut(1:20, breaks = 3) |&gt; factor(labels = c("A","B","C"))`</t>
+  </si>
+  <si>
+    <t>`|&gt;`</t>
+  </si>
+  <si>
+    <t>Operador pipe nativo.</t>
+  </si>
+  <si>
+    <t>Operador pipe de tidyverse.</t>
+  </si>
+  <si>
+    <t>`%&gt;%`</t>
+  </si>
+  <si>
+    <t>`x |&gt; round(2)`</t>
+  </si>
+  <si>
+    <t>`x %&gt;% round(2)`</t>
+  </si>
+  <si>
+    <t>`glm()`</t>
+  </si>
+  <si>
+    <t>Calcula un modelo generalizado lineal, siguiendo una fórmula predefinida.</t>
+  </si>
+  <si>
+    <t>`glm(Petal.Length ~ Sepal.Length, data=iris)`</t>
   </si>
 </sst>
 </file>
@@ -820,20 +928,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FD411-BDF2-40FD-A78A-9EFC2CE3AA28}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.76953125" customWidth="1"/>
-    <col min="2" max="2" width="56.76953125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -844,554 +952,719 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.85" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+    <row r="5" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>128</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>129</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>57</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>122</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>133</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>134</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" t="s">
         <v>126</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" t="s">
         <v>73</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>75</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>81</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>85</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>87</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>89</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>88</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>90</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>92</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>121</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>93</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
         <v>94</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>95</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>96</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>97</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>99</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>100</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A46" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B54" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C54" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" t="s">
         <v>114</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>115</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B56" t="s">
         <v>116</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>130</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B57" t="s">
         <v>131</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C57" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>143</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B58" t="s">
         <v>145</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C58" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>170</v>
+      </c>
+      <c r="B64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
